--- a/data/Sign.xlsx
+++ b/data/Sign.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>接口名称</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Sign</t>
   </si>
   <si>
-    <t>kong</t>
-  </si>
-  <si>
     <t>登录成功！</t>
   </si>
   <si>
@@ -133,6 +130,15 @@
   </si>
   <si>
     <t>mes</t>
+  </si>
+  <si>
+    <t>收据</t>
+  </si>
+  <si>
+    <t>SHOUJU</t>
+  </si>
+  <si>
+    <t>操作成功!</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
   <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -541,17 +547,11 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="3" spans="1:8">
@@ -565,19 +565,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="4" spans="1:8">
@@ -591,19 +585,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="5" spans="1:8">
@@ -617,19 +605,13 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="6" spans="1:8">
@@ -643,19 +625,13 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="7" spans="1:8">
@@ -669,179 +645,154 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="29.25" r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="29.25" r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="29.25" r="14" spans="1:8">
-      <c r="B14" s="1" t="n"/>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row customHeight="1" ht="29.25" r="15" spans="1:8">
       <c r="B15" s="1" t="n"/>
@@ -1431,6 +1382,7 @@
     <hyperlink ref="B11" r:id="rId8"/>
     <hyperlink ref="B12" r:id="rId9"/>
     <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup copies="0" horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
